--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2149.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2149.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.231597741866937</v>
+        <v>0.7452577948570251</v>
       </c>
       <c r="B1">
-        <v>2.160210699872229</v>
+        <v>1.4085533618927</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.851008109998201</v>
+        <v>1.923132061958313</v>
       </c>
       <c r="E1">
-        <v>0.7764773454178966</v>
+        <v>1.213793635368347</v>
       </c>
     </row>
   </sheetData>
